--- a/sample/benchmarks/03_bikeframe/data_sheet.xlsx
+++ b/sample/benchmarks/03_bikeframe/data_sheet.xlsx
@@ -143,7 +143,7 @@
   </si>
   <si>
     <t>3. large
-311k nodes, 177k elems</t>
+365k nodes, 77k elems</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -221,7 +221,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -246,9 +246,6 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -271,9 +268,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -403,7 +397,7 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3. large
-311k nodes, 177k elems</c:v>
+365k nodes, 77k elems</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -415,13 +409,13 @@
                 <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.2</c:v>
+                  <c:v>4.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>61.4</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0.0_ ">
-                  <c:v>165.8</c:v>
+                <c:pt idx="2">
+                  <c:v>763.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -457,7 +451,7 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3. large
-311k nodes, 177k elems</c:v>
+365k nodes, 77k elems</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -469,13 +463,13 @@
                 <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.7</c:v>
+                  <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>30.2</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0.0_ ">
-                  <c:v>64</c:v>
+                <c:pt idx="2">
+                  <c:v>82.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -511,7 +505,7 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3. large
-311k nodes, 177k elems</c:v>
+365k nodes, 77k elems</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -523,13 +517,13 @@
                 <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.6</c:v>
+                  <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.7</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.0_ ">
-                  <c:v>52.9</c:v>
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -565,7 +559,7 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3. large
-311k nodes, 177k elems</c:v>
+365k nodes, 77k elems</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -577,13 +571,13 @@
                 <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.7</c:v>
+                  <c:v>2.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>18.399999999999999</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0.0_ ">
-                  <c:v>35.1</c:v>
+                <c:pt idx="2">
+                  <c:v>53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -599,11 +593,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="208825344"/>
-        <c:axId val="208831232"/>
+        <c:axId val="230960512"/>
+        <c:axId val="230978688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="208825344"/>
+        <c:axId val="230960512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -613,7 +607,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208831232"/>
+        <c:crossAx val="230978688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -621,9 +615,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="208831232"/>
+        <c:axId val="230978688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -632,7 +628,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208825344"/>
+        <c:crossAx val="230960512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -749,7 +745,7 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="3" name="グループ化 2"/>
+        <xdr:cNvPr id="7" name="グループ化 6"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -760,99 +756,280 @@
           <a:chExt cx="7144874" cy="4640915"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:graphicFrame macro="">
-        <xdr:nvGraphicFramePr>
-          <xdr:cNvPr id="2" name="グラフ 1"/>
-          <xdr:cNvGraphicFramePr/>
-        </xdr:nvGraphicFramePr>
-        <xdr:xfrm>
-          <a:off x="6873685" y="2698938"/>
-          <a:ext cx="7144874" cy="4640915"/>
-        </xdr:xfrm>
-        <a:graphic>
-          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          </a:graphicData>
-        </a:graphic>
-      </xdr:graphicFrame>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="5" name="図 4"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="3" name="グループ化 2"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="7743265" y="3265567"/>
-            <a:ext cx="2061881" cy="1483483"/>
+            <a:off x="6873685" y="2698938"/>
+            <a:ext cx="7144874" cy="4640915"/>
+            <a:chOff x="6873685" y="2698938"/>
+            <a:chExt cx="7144874" cy="4640915"/>
           </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
+        </xdr:grpSpPr>
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="グラフ 1"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="6873685" y="2698938"/>
+            <a:ext cx="7144874" cy="4640915"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="図 4"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7552765" y="3276773"/>
+              <a:ext cx="2061881" cy="1483483"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14" name="テキスト ボックス 13"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9876862" y="3572998"/>
+              <a:ext cx="1833285" cy="270620"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+                <a:t>*1  Inaccurate solution</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11911852" y="3197059"/>
+              <a:ext cx="728382" cy="276764"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+                  <a:latin typeface="+mn-lt"/>
+                </a:rPr>
+                <a:t>(763.3)*1</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+                <a:latin typeface="+mn-lt"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9749118" y="4325473"/>
+              <a:ext cx="840442" cy="268942"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(           )*1</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="テキスト ボックス 10"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7649136" y="6450106"/>
+              <a:ext cx="840442" cy="268942"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(       )*1</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="テキスト ボックス 13"/>
+          <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="9955303" y="3662645"/>
-            <a:ext cx="1833285" cy="270620"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-              <a:t>*1  Inaccurate solution</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="11911853" y="3204882"/>
-            <a:ext cx="840442" cy="268942"/>
+            <a:off x="6902824" y="2801471"/>
+            <a:ext cx="481853" cy="235324"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -882,95 +1059,7 @@
           <a:p>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>(           )*1</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9737912" y="5334000"/>
-            <a:ext cx="840442" cy="268942"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>(           )*1</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="テキスト ボックス 10"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7649136" y="6506136"/>
-            <a:ext cx="840442" cy="268942"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>(      )*1</a:t>
+              <a:t>[sec]</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
           </a:p>
@@ -1271,8 +1360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W26" sqref="W26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1327,7 +1416,7 @@
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C3" t="s">
@@ -1336,20 +1425,20 @@
       <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <v>1.2</v>
       </c>
-      <c r="F3" s="16">
-        <v>4.2</v>
-      </c>
-      <c r="G3" s="16">
+      <c r="F3" s="15">
+        <v>4.3</v>
+      </c>
+      <c r="G3" s="15">
         <v>10.4</v>
       </c>
       <c r="H3" s="5">
         <f t="shared" ref="H3:H12" si="0">G3-F3</f>
-        <v>6.2</v>
-      </c>
-      <c r="I3" s="12">
+        <v>6.1000000000000005</v>
+      </c>
+      <c r="I3" s="11">
         <v>622.82000000000005</v>
       </c>
       <c r="J3" s="4">
@@ -1363,109 +1452,109 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="11"/>
+      <c r="B4" s="10"/>
       <c r="C4" t="s">
         <v>0</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="14">
         <v>1.2</v>
       </c>
-      <c r="F4" s="16">
-        <v>3.7</v>
-      </c>
-      <c r="G4" s="16">
-        <v>9.9</v>
+      <c r="F4" s="15">
+        <v>3.6</v>
+      </c>
+      <c r="G4" s="15">
+        <v>9.6999999999999993</v>
       </c>
       <c r="H4" s="5">
         <f t="shared" si="0"/>
-        <v>6.2</v>
-      </c>
-      <c r="I4" s="12">
+        <v>6.1</v>
+      </c>
+      <c r="I4" s="11">
         <v>375.31</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="11"/>
+      <c r="B5" s="10"/>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F5" s="15">
-        <v>2.6</v>
-      </c>
-      <c r="G5" s="16">
+      <c r="F5" s="14">
+        <v>2.4</v>
+      </c>
+      <c r="G5" s="15">
         <v>11.3</v>
       </c>
       <c r="H5" s="5">
         <f t="shared" si="0"/>
-        <v>8.7000000000000011</v>
-      </c>
-      <c r="I5" s="13">
+        <v>8.9</v>
+      </c>
+      <c r="I5" s="12">
         <v>375.37</v>
       </c>
       <c r="J5" s="4">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="K5" s="3">
-        <v>9.7899949999999995E-7</v>
+        <v>4.5942740000000002E-7</v>
       </c>
       <c r="L5" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B6" s="11"/>
+      <c r="B6" s="10"/>
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F6" s="16">
-        <v>2.7</v>
-      </c>
-      <c r="G6" s="16">
-        <v>11.2</v>
+      <c r="F6" s="15">
+        <v>2.6</v>
+      </c>
+      <c r="G6" s="15">
+        <v>10.7</v>
       </c>
       <c r="H6" s="5">
         <f t="shared" si="0"/>
-        <v>8.5</v>
-      </c>
-      <c r="I6" s="12">
+        <v>8.1</v>
+      </c>
+      <c r="I6" s="11">
         <v>375.31</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="8" t="s">
         <v>16</v>
       </c>
       <c r="K6" s="2">
         <v>2.5175300000000001E-15</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C7" t="s">
@@ -1474,20 +1563,20 @@
       <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <v>4</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="15">
         <v>61.4</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="15">
         <v>82.3</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" si="0"/>
         <v>20.9</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="12">
         <v>1759.03</v>
       </c>
       <c r="J7" s="4">
@@ -1501,109 +1590,109 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B8" s="11"/>
+      <c r="B8" s="10"/>
       <c r="C8" t="s">
         <v>0</v>
       </c>
       <c r="D8" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="14">
         <v>3.8</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="15">
         <v>30.2</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="15">
         <v>51.3</v>
       </c>
       <c r="H8" s="5">
         <f>G8-F8</f>
         <v>21.099999999999998</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="12">
         <v>474.58</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="L8" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B9" s="11"/>
+      <c r="B9" s="10"/>
       <c r="C9" t="s">
         <v>1</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="15">
         <v>6.7</v>
       </c>
-      <c r="F9" s="16">
-        <v>26.7</v>
-      </c>
-      <c r="G9" s="16">
-        <v>41.9</v>
+      <c r="F9" s="15">
+        <v>14.9</v>
+      </c>
+      <c r="G9" s="15">
+        <v>29.8</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" si="0"/>
-        <v>15.2</v>
-      </c>
-      <c r="I9" s="13">
+        <v>14.9</v>
+      </c>
+      <c r="I9" s="12">
         <v>474.68</v>
       </c>
       <c r="J9" s="4">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="K9" s="3">
-        <v>9.1912359999999997E-7</v>
+        <v>9.6765200000000001E-7</v>
       </c>
       <c r="L9" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B10" s="11"/>
+      <c r="B10" s="10"/>
       <c r="C10" t="s">
         <v>1</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="15">
         <v>6.8</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="15">
         <v>18.399999999999999</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="15">
         <v>33.9</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" si="0"/>
         <v>15.5</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="12">
         <v>474.58</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="8" t="s">
         <v>16</v>
       </c>
       <c r="K10" s="3">
         <v>7.5130499999999993E-15</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="L10" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C11" t="s">
@@ -1612,136 +1701,136 @@
       <c r="D11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="16">
-        <v>6.7</v>
-      </c>
-      <c r="F11" s="17">
-        <v>165.8</v>
-      </c>
-      <c r="G11" s="17">
-        <v>201.4</v>
-      </c>
-      <c r="H11" s="7">
-        <f>G11-F11</f>
-        <v>35.599999999999994</v>
+      <c r="E11" s="15">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F11" s="15">
+        <v>763.3</v>
+      </c>
+      <c r="G11" s="15">
+        <v>806.4</v>
+      </c>
+      <c r="H11" s="5">
+        <f t="shared" si="0"/>
+        <v>43.100000000000023</v>
       </c>
       <c r="I11" s="12">
-        <v>2397.54</v>
-      </c>
-      <c r="J11" s="8">
-        <v>463</v>
+        <v>1171.69</v>
+      </c>
+      <c r="J11" s="4">
+        <v>5208</v>
       </c>
       <c r="K11" s="3">
-        <v>0.2540327</v>
-      </c>
-      <c r="L11" s="3">
-        <v>0.26506960000000002</v>
+        <v>7.4098699999999998E-3</v>
+      </c>
+      <c r="L11" s="2">
+        <v>7.521158E-3</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B12" s="11"/>
+      <c r="B12" s="10"/>
       <c r="C12" t="s">
         <v>0</v>
       </c>
       <c r="D12" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="16">
-        <v>6.7</v>
-      </c>
-      <c r="F12" s="16">
-        <v>64</v>
-      </c>
-      <c r="G12" s="18">
-        <v>98.7</v>
+      <c r="E12" s="15">
+        <v>7.9</v>
+      </c>
+      <c r="F12" s="15">
+        <v>82.5</v>
+      </c>
+      <c r="G12" s="16">
+        <v>122.1</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" si="0"/>
-        <v>34.700000000000003</v>
-      </c>
-      <c r="I12" s="14">
-        <v>520.71</v>
-      </c>
-      <c r="J12" s="9" t="s">
+        <v>39.599999999999994</v>
+      </c>
+      <c r="I12" s="13">
+        <v>523.58000000000004</v>
+      </c>
+      <c r="J12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="9" t="s">
+      <c r="L12" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B13" s="11"/>
+      <c r="B13" s="10"/>
       <c r="C13" t="s">
         <v>1</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="16">
-        <v>11.5</v>
-      </c>
-      <c r="F13" s="16">
-        <v>52.9</v>
-      </c>
-      <c r="G13" s="16">
-        <v>70.3</v>
+      <c r="E13" s="15">
+        <v>13.6</v>
+      </c>
+      <c r="F13" s="15">
+        <v>31.4</v>
+      </c>
+      <c r="G13" s="15">
+        <v>50.7</v>
       </c>
       <c r="H13" s="5">
         <f>G13-F13</f>
-        <v>17.399999999999999</v>
-      </c>
-      <c r="I13" s="13">
-        <v>520.79</v>
+        <v>19.300000000000004</v>
+      </c>
+      <c r="I13" s="12">
+        <v>523.57000000000005</v>
       </c>
       <c r="J13" s="4">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="K13" s="2">
-        <v>9.1754479999999999E-7</v>
+        <v>7.3584379999999997E-7</v>
       </c>
       <c r="L13" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B14" s="11"/>
+      <c r="B14" s="10"/>
       <c r="C14" t="s">
         <v>1</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="16">
-        <v>11.6</v>
-      </c>
-      <c r="F14" s="16">
-        <v>35.1</v>
-      </c>
-      <c r="G14" s="16">
-        <v>51.9</v>
+      <c r="E14" s="15">
+        <v>13.8</v>
+      </c>
+      <c r="F14" s="15">
+        <v>53</v>
+      </c>
+      <c r="G14" s="15">
+        <v>72.400000000000006</v>
       </c>
       <c r="H14" s="5">
         <f>G14-F14</f>
-        <v>16.799999999999997</v>
-      </c>
-      <c r="I14" s="14">
-        <v>520.71</v>
-      </c>
-      <c r="J14" s="9" t="s">
+        <v>19.400000000000006</v>
+      </c>
+      <c r="I14" s="13">
+        <v>523.58000000000004</v>
+      </c>
+      <c r="J14" s="8" t="s">
         <v>16</v>
       </c>
       <c r="K14" s="2">
-        <v>1.02714E-14</v>
-      </c>
-      <c r="L14" s="9" t="s">
+        <v>9.0635800000000004E-15</v>
+      </c>
+      <c r="L14" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="J15" s="9"/>
+      <c r="J15" s="8"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C16" t="s">
@@ -1749,7 +1838,7 @@
       </c>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1777,14 +1866,14 @@
       <c r="D20" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="16">
-        <v>4.2</v>
-      </c>
-      <c r="G20" s="16">
+      <c r="F20" s="15">
+        <v>4.3</v>
+      </c>
+      <c r="G20" s="15">
         <v>61.4</v>
       </c>
-      <c r="H20" s="7">
-        <v>165.8</v>
+      <c r="H20" s="15">
+        <v>763.3</v>
       </c>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.15">
@@ -1794,14 +1883,14 @@
       <c r="D21" t="s">
         <v>2</v>
       </c>
-      <c r="F21" s="16">
-        <v>3.7</v>
-      </c>
-      <c r="G21" s="16">
+      <c r="F21" s="15">
+        <v>3.6</v>
+      </c>
+      <c r="G21" s="15">
         <v>30.2</v>
       </c>
-      <c r="H21" s="5">
-        <v>64</v>
+      <c r="H21" s="15">
+        <v>82.5</v>
       </c>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.15">
@@ -1811,14 +1900,14 @@
       <c r="D22" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="15">
-        <v>2.6</v>
-      </c>
-      <c r="G22" s="16">
-        <v>26.7</v>
-      </c>
-      <c r="H22" s="5">
-        <v>52.9</v>
+      <c r="F22" s="14">
+        <v>2.4</v>
+      </c>
+      <c r="G22" s="15">
+        <v>14.9</v>
+      </c>
+      <c r="H22" s="15">
+        <v>31.4</v>
       </c>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.15">
@@ -1828,18 +1917,18 @@
       <c r="D23" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="16">
-        <v>2.7</v>
-      </c>
-      <c r="G23" s="16">
+      <c r="F23" s="15">
+        <v>2.6</v>
+      </c>
+      <c r="G23" s="15">
         <v>18.399999999999999</v>
       </c>
-      <c r="H23" s="5">
-        <v>35.1</v>
+      <c r="H23" s="15">
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1871,7 +1960,7 @@
       </c>
       <c r="H27" s="7">
         <f>E11+G11</f>
-        <v>208.1</v>
+        <v>814.6</v>
       </c>
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.15">
@@ -1883,7 +1972,7 @@
       </c>
       <c r="F28" s="5">
         <f>E4+G4</f>
-        <v>11.1</v>
+        <v>10.899999999999999</v>
       </c>
       <c r="G28" s="5">
         <f>E8+G8</f>
@@ -1891,7 +1980,7 @@
       </c>
       <c r="H28" s="7">
         <f>E12+G12</f>
-        <v>105.4</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="3:8" x14ac:dyDescent="0.15">
@@ -1907,11 +1996,11 @@
       </c>
       <c r="G29" s="5">
         <f>E9+G9</f>
-        <v>48.6</v>
+        <v>36.5</v>
       </c>
       <c r="H29" s="7">
         <f>E13+G13</f>
-        <v>81.8</v>
+        <v>64.3</v>
       </c>
     </row>
     <row r="30" spans="3:8" x14ac:dyDescent="0.15">
@@ -1923,7 +2012,7 @@
       </c>
       <c r="F30" s="5">
         <f>E6+G6</f>
-        <v>13.399999999999999</v>
+        <v>12.899999999999999</v>
       </c>
       <c r="G30" s="5">
         <f>E10+G10</f>
@@ -1931,7 +2020,7 @@
       </c>
       <c r="H30" s="7">
         <f>E14+G14</f>
-        <v>63.5</v>
+        <v>86.2</v>
       </c>
     </row>
   </sheetData>
